--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>Bien amor</t>
+  </si>
+  <si>
+    <t>28/10/2021 18:32</t>
+  </si>
+  <si>
+    <t>Sii more</t>
+  </si>
+  <si>
+    <t>Venga</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,6 +439,22 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Venga</t>
+  </si>
+  <si>
+    <t>01/11/2021 16:56</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,6 +463,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Fecha</t>
   </si>
@@ -44,6 +44,69 @@
   </si>
   <si>
     <t>Hola</t>
+  </si>
+  <si>
+    <t>02/11/2021 11:40</t>
+  </si>
+  <si>
+    <t>Ya se quiere ir</t>
+  </si>
+  <si>
+    <t>02/11/2021 11:49</t>
+  </si>
+  <si>
+    <t>Ahorita a las 12 More</t>
+  </si>
+  <si>
+    <t>Cuando usted me diga ya terminé</t>
+  </si>
+  <si>
+    <t>02/11/2021 11:57</t>
+  </si>
+  <si>
+    <t>Sii mí cielo</t>
+  </si>
+  <si>
+    <t>02/11/2021 11:59</t>
+  </si>
+  <si>
+    <t>Hay que comprar papas</t>
+  </si>
+  <si>
+    <t>Allá preparo el pollo</t>
+  </si>
+  <si>
+    <t>02/11/2021 12:00</t>
+  </si>
+  <si>
+    <t>Un jugo de lulo papa cosida y pollo frito</t>
+  </si>
+  <si>
+    <t>Eso</t>
+  </si>
+  <si>
+    <t>02/11/2021 12:16</t>
+  </si>
+  <si>
+    <t>Vamos</t>
+  </si>
+  <si>
+    <t>02/11/2021 12:38</t>
+  </si>
+  <si>
+    <t>Amor no me espere valla adelante</t>
+  </si>
+  <si>
+    <t>Yo dejé cosinando el pollo</t>
+  </si>
+  <si>
+    <t>Me demoró más de lo que crei</t>
+  </si>
+  <si>
+    <t>02/11/2021 12:39</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,6 +534,110 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Fecha</t>
   </si>
@@ -107,6 +107,42 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>04/11/2021 12:03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>04/11/2021 12:05</t>
+  </si>
+  <si>
+    <t>Trabajando</t>
+  </si>
+  <si>
+    <t>04/11/2021 12:09</t>
+  </si>
+  <si>
+    <t>Bueno More mío</t>
+  </si>
+  <si>
+    <t>04/11/2021 12:23</t>
+  </si>
+  <si>
+    <t>Ya estoy lista para irme</t>
+  </si>
+  <si>
+    <t>04/11/2021 12:26</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>04/11/2021 12:27</t>
+  </si>
+  <si>
+    <t>Lo espero acá afuera</t>
   </si>
 </sst>
 </file>
@@ -483,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,6 +674,62 @@
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -143,6 +143,30 @@
   </si>
   <si>
     <t>Lo espero acá afuera</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:48</t>
+  </si>
+  <si>
+    <t>No nunca me contestaron los de Louis Pasteur</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:51</t>
+  </si>
+  <si>
+    <t>Con quién</t>
+  </si>
+  <si>
+    <t>24/11/2021 12:06 pm</t>
+  </si>
+  <si>
+    <t>No mor nada</t>
+  </si>
+  <si>
+    <t>24/11/2021 12:07 pm</t>
+  </si>
+  <si>
+    <t>Me tocó escribir a otro número por que nda</t>
   </si>
 </sst>
 </file>
@@ -519,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,6 +754,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Fecha</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Me tocó escribir a otro número por que nda</t>
+  </si>
+  <si>
+    <t>18/01/2022 11:46 am</t>
+  </si>
+  <si>
+    <t>Si bb</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,6 +792,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Fecha</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Si bb</t>
+  </si>
+  <si>
+    <t>15/02/2022 11:59 am</t>
+  </si>
+  <si>
+    <t>Mi vida</t>
+  </si>
+  <si>
+    <t>No había visto su msj</t>
   </si>
 </sst>
 </file>
@@ -549,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,6 +809,22 @@
         <v>53</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Fecha</t>
   </si>
@@ -182,6 +182,45 @@
   </si>
   <si>
     <t>No había visto su msj</t>
+  </si>
+  <si>
+    <t>10/03/2022 08:55 am</t>
+  </si>
+  <si>
+    <t>Yo la baje mí amor</t>
+  </si>
+  <si>
+    <t>Lindo</t>
+  </si>
+  <si>
+    <t>Si me di cuenta</t>
+  </si>
+  <si>
+    <t>10/03/2022 08:57 am</t>
+  </si>
+  <si>
+    <t>Si mí amor</t>
+  </si>
+  <si>
+    <t>10/03/2022 09:10 am</t>
+  </si>
+  <si>
+    <t>No pasa nada amor 😚</t>
+  </si>
+  <si>
+    <t>10/03/2022 09:45 am</t>
+  </si>
+  <si>
+    <t>Junm linda 🤦🏽‍♀️</t>
+  </si>
+  <si>
+    <t>10/03/2022 10:39 am</t>
+  </si>
+  <si>
+    <t>😘🥰</t>
+  </si>
+  <si>
+    <t>Te shero</t>
   </si>
 </sst>
 </file>
@@ -558,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,6 +864,70 @@
         <v>56</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -221,6 +221,54 @@
   </si>
   <si>
     <t>Te shero</t>
+  </si>
+  <si>
+    <t>10/03/2022 03:45 pm</t>
+  </si>
+  <si>
+    <t>Hola amor</t>
+  </si>
+  <si>
+    <t>Me dormí</t>
+  </si>
+  <si>
+    <t>10/03/2022 04:17 pm</t>
+  </si>
+  <si>
+    <t>No y había urgencia</t>
+  </si>
+  <si>
+    <t>No me llamaron</t>
+  </si>
+  <si>
+    <t>Ni nada</t>
+  </si>
+  <si>
+    <t>10/03/2022 04:18 pm</t>
+  </si>
+  <si>
+    <t>Yo no sé cómo no fueron donde Laura Camila a quejarse</t>
+  </si>
+  <si>
+    <t>10/03/2022 04:23 pm</t>
+  </si>
+  <si>
+    <t>Ya estoy aquí</t>
+  </si>
+  <si>
+    <t>Corriendo por qué imagínese desde las 2:30 esperando laboratorio</t>
+  </si>
+  <si>
+    <t>10/03/2022 04:24 pm</t>
+  </si>
+  <si>
+    <t>Y yo ni por ahí</t>
+  </si>
+  <si>
+    <t>10/03/2022 04:25 pm</t>
+  </si>
+  <si>
+    <t>No amor es que ellas tienen que avisarme osea que si yo no hubiera venido que</t>
   </si>
 </sst>
 </file>
@@ -597,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,6 +976,86 @@
         <v>69</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573226798392@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>No amor es que ellas tienen que avisarme osea que si yo no hubiera venido que</t>
+  </si>
+  <si>
+    <t>10/03/2022 08:50 pm</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,6 +1065,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
